--- a/biology/Botanique/Taxe_sur_l'ajout_de_sucre_à_la_vendange/Taxe_sur_l'ajout_de_sucre_à_la_vendange.xlsx
+++ b/biology/Botanique/Taxe_sur_l'ajout_de_sucre_à_la_vendange/Taxe_sur_l'ajout_de_sucre_à_la_vendange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Taxe_sur_l%27ajout_de_sucre_%C3%A0_la_vendange</t>
+          <t>Taxe_sur_l'ajout_de_sucre_à_la_vendange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La taxe sur l'ajout de sucre à la vendange est une taxe sur la chaptalisation, le procédé visant à ajouter du sucre au moût pour augmenter le degré d'alcool final du vin après la fermentation alcoolique. La taxe a été supprimée en 2019.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Taxe_sur_l%27ajout_de_sucre_%C3%A0_la_vendange</t>
+          <t>Taxe_sur_l'ajout_de_sucre_à_la_vendange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La loi du 29 juillet 1884 prévoit un article sur le sucrage des vendanges[1],[2]. L'article 2 réduit les taxes sur le sucre lorsqu'il est utilisé pour les vendanges.
-À la suite de la révolte des vignerons de 1907, les parlementaires promulguent le 29 juin une loi « tendant à prévenir le mouillage des vins et l'abus du sucrage par une surtaxe sur le sucre et obligation de déclaration par les commerçants de vente de sucre supérieur à 25 kilos »[3].
-Un rapport de l'Inspection générale des finances (IGF) de 2014 fait remonter la création de la taxe à 1926[4]. Et le rapport de Razzy Hammadi indique 1964[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loi du 29 juillet 1884 prévoit un article sur le sucrage des vendanges,. L'article 2 réduit les taxes sur le sucre lorsqu'il est utilisé pour les vendanges.
+À la suite de la révolte des vignerons de 1907, les parlementaires promulguent le 29 juin une loi « tendant à prévenir le mouillage des vins et l'abus du sucrage par une surtaxe sur le sucre et obligation de déclaration par les commerçants de vente de sucre supérieur à 25 kilos ».
+Un rapport de l'Inspection générale des finances (IGF) de 2014 fait remonter la création de la taxe à 1926. Et le rapport de Razzy Hammadi indique 1964.
 La taxe est codifiée à l'article 422 du code général des impôts.
-En 2014, l'IGF liste la taxe dans les 192 taxes à faible rendement[4]. L'IGF préconise de supprimer la taxe.
-L'article 9 de la loi de finances pour 2019 supprime plusieurs taxes à faible rendement, dont la taxe sur l'ajout de sucre à la vendange[6],[7].
+En 2014, l'IGF liste la taxe dans les 192 taxes à faible rendement. L'IGF préconise de supprimer la taxe.
+L'article 9 de la loi de finances pour 2019 supprime plusieurs taxes à faible rendement, dont la taxe sur l'ajout de sucre à la vendange,.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taxe_sur_l%27ajout_de_sucre_%C3%A0_la_vendange</t>
+          <t>Taxe_sur_l'ajout_de_sucre_à_la_vendange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,13 +563,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bénéficiaire
-Le produit de la taxe était affecté au budget général de l'État[4].
-Redevables
-Le rapport d'Hamzy Hammadi de 2016 précise que la taxe est due par 6 087 redevables[5].
+          <t>Bénéficiaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le produit de la taxe était affecté au budget général de l'État.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Taxe_sur_l'ajout_de_sucre_à_la_vendange</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taxe_sur_l%27ajout_de_sucre_%C3%A0_la_vendange</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Redevables</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rapport d'Hamzy Hammadi de 2016 précise que la taxe est due par 6 087 redevables.
 Le montant de la taxe s'élève à 13 euros par centaine de kilogrammes de sucre ajouté à la vendange par hectare de vigne.
-Produit
-Le produit de la taxe sur l'ajout de sucre à la vendange est de 1,2 million d'euro en 2012[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Taxe_sur_l'ajout_de_sucre_à_la_vendange</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taxe_sur_l%27ajout_de_sucre_%C3%A0_la_vendange</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le produit de la taxe sur l'ajout de sucre à la vendange est de 1,2 million d'euro en 2012.
 </t>
         </is>
       </c>
